--- a/reports/Descriptive_Statistics.xlsx
+++ b/reports/Descriptive_Statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4d85abe27334648/Dokumente/Master/Abschlussarbeit/LosingIndustryCropYield/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_D23B8D497FAF2D92AD3F9726CBB7E0C065CF1A39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8AC52EA-1AFA-47DE-9694-9239423157B0}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_D23B8D497FAF2D92AD3F9726CBB7E0C065CF1A39" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E62CFEED-731A-4799-A82C-915609182CF9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,13 @@
     <sheet name="Rice" sheetId="3" r:id="rId3"/>
     <sheet name="Soybean" sheetId="4" r:id="rId4"/>
     <sheet name="Wheat" sheetId="5" r:id="rId5"/>
-    <sheet name="Variance Inflation Factor" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="31">
   <si>
     <t>Total_Area(ha)</t>
   </si>
@@ -118,54 +117,6 @@
   </si>
   <si>
     <t>continents</t>
-  </si>
-  <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>TRC_2</t>
-  </si>
-  <si>
-    <t>TRC_3</t>
-  </si>
-  <si>
-    <t>TRC_4</t>
-  </si>
-  <si>
-    <t>TRC_5</t>
-  </si>
-  <si>
-    <t>TRC_6</t>
-  </si>
-  <si>
-    <t>TRC_7</t>
-  </si>
-  <si>
-    <t>M_3</t>
-  </si>
-  <si>
-    <t>M_4</t>
-  </si>
-  <si>
-    <t>M_5</t>
-  </si>
-  <si>
-    <t>M_6</t>
-  </si>
-  <si>
-    <t>S_2</t>
-  </si>
-  <si>
-    <t>S_3</t>
-  </si>
-  <si>
-    <t>S_4</t>
-  </si>
-  <si>
-    <t>S_5</t>
-  </si>
-  <si>
-    <t>L_3</t>
   </si>
 </sst>
 </file>
@@ -812,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4037,7 +3988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5106,388 +5057,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>71.168330712259419</v>
-      </c>
-      <c r="C2">
-        <v>54.942462379246457</v>
-      </c>
-      <c r="D2">
-        <v>237.18654415597069</v>
-      </c>
-      <c r="E2">
-        <v>109.03137621356819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>5.4607005999954046</v>
-      </c>
-      <c r="C3">
-        <v>9.1162104199003444</v>
-      </c>
-      <c r="D3">
-        <v>4.4320691748063279</v>
-      </c>
-      <c r="E3">
-        <v>5.7908282419050634</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>6.7311489612983149</v>
-      </c>
-      <c r="C4">
-        <v>8.863770931353482</v>
-      </c>
-      <c r="D4">
-        <v>6.2223083449183676</v>
-      </c>
-      <c r="E4">
-        <v>6.8212185934741942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>2.7065828704220629</v>
-      </c>
-      <c r="C5">
-        <v>2.8265143473120129</v>
-      </c>
-      <c r="D5">
-        <v>2.3640893999640831</v>
-      </c>
-      <c r="E5">
-        <v>1.938221373848122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>2.308687649329797</v>
-      </c>
-      <c r="C6">
-        <v>2.0088642989657521</v>
-      </c>
-      <c r="D6">
-        <v>2.2586365254712142</v>
-      </c>
-      <c r="E6">
-        <v>2.6890789105987212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>1.6989492094589289</v>
-      </c>
-      <c r="C7">
-        <v>1.366465067948829</v>
-      </c>
-      <c r="D7">
-        <v>2.6817724919923371</v>
-      </c>
-      <c r="E7">
-        <v>2.2541355063750488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8">
-        <v>1.1227770748050681</v>
-      </c>
-      <c r="C8">
-        <v>1.074962134559063</v>
-      </c>
-      <c r="D8">
-        <v>1.107723221376897</v>
-      </c>
-      <c r="E8">
-        <v>1.767709171353244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>1.278339350611982</v>
-      </c>
-      <c r="C9">
-        <v>1.6545363248874441</v>
-      </c>
-      <c r="D9">
-        <v>1.565936320951953</v>
-      </c>
-      <c r="E9">
-        <v>4.8413829786193512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>1.5849750231077271</v>
-      </c>
-      <c r="C10">
-        <v>1.7255147095628749</v>
-      </c>
-      <c r="D10">
-        <v>2.6242496883159609</v>
-      </c>
-      <c r="E10">
-        <v>6.6621590119717133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11">
-        <v>1.35033727909102</v>
-      </c>
-      <c r="C11">
-        <v>1.3292471824111749</v>
-      </c>
-      <c r="D11">
-        <v>1.4410035352148041</v>
-      </c>
-      <c r="E11">
-        <v>5.882097243909584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12">
-        <v>2.2106037841236419</v>
-      </c>
-      <c r="C12">
-        <v>1.67201229879177</v>
-      </c>
-      <c r="D12">
-        <v>3.693617352976247</v>
-      </c>
-      <c r="E12">
-        <v>6.5577509892533179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>2.319564045733248</v>
-      </c>
-      <c r="C13">
-        <v>1.3491368512938</v>
-      </c>
-      <c r="D13">
-        <v>3.4828020081522282</v>
-      </c>
-      <c r="E13">
-        <v>12.663369741500491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>3.7877966622542489</v>
-      </c>
-      <c r="C14">
-        <v>3.2407662046183749</v>
-      </c>
-      <c r="D14">
-        <v>9.5706259514374441</v>
-      </c>
-      <c r="E14">
-        <v>2.2092165653220239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <v>3.7483773850144031</v>
-      </c>
-      <c r="C15">
-        <v>3.5946027972584278</v>
-      </c>
-      <c r="D15">
-        <v>10.08103410672596</v>
-      </c>
-      <c r="E15">
-        <v>2.1720472138615259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>3.7258108521249409</v>
-      </c>
-      <c r="C16">
-        <v>3.8339174230641242</v>
-      </c>
-      <c r="D16">
-        <v>14.30789022520988</v>
-      </c>
-      <c r="E16">
-        <v>1.9091359804729491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17">
-        <v>4.5349496574723718</v>
-      </c>
-      <c r="C17">
-        <v>5.8803444387052117</v>
-      </c>
-      <c r="D17">
-        <v>16.08736208827008</v>
-      </c>
-      <c r="E17">
-        <v>2.058363596829865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18">
-        <v>2.143921166099624</v>
-      </c>
-      <c r="C18">
-        <v>1.8861884472730699</v>
-      </c>
-      <c r="D18">
-        <v>5.9585716699091522</v>
-      </c>
-      <c r="E18">
-        <v>2.829374982617991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19">
-        <v>12.21859321529454</v>
-      </c>
-      <c r="C19">
-        <v>5.3492418253035909</v>
-      </c>
-      <c r="D19">
-        <v>40.487544791514289</v>
-      </c>
-      <c r="E19">
-        <v>15.59109233619257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20">
-        <v>11.07647193091541</v>
-      </c>
-      <c r="C20">
-        <v>7.9632830315273102</v>
-      </c>
-      <c r="D20">
-        <v>35.091961605088628</v>
-      </c>
-      <c r="E20">
-        <v>11.04050028341892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>3.4112440004118079</v>
-      </c>
-      <c r="C21">
-        <v>3.8161999609772108</v>
-      </c>
-      <c r="D21">
-        <v>8.0021587964745162</v>
-      </c>
-      <c r="E21">
-        <v>2.9362089094346242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22">
-        <v>7.734363400069884</v>
-      </c>
-      <c r="C22">
-        <v>8.4104098288415994</v>
-      </c>
-      <c r="D22">
-        <v>18.787262211302529</v>
-      </c>
-      <c r="E22">
-        <v>10.5240635939266</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>